--- a/biology/Botanique/Jardin_Anaïs-Nin/Jardin_Anaïs-Nin.xlsx
+++ b/biology/Botanique/Jardin_Anaïs-Nin/Jardin_Anaïs-Nin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_Ana%C3%AFs-Nin</t>
+          <t>Jardin_Anaïs-Nin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Anaïs-Nin est un espace vert situé avenue de la Porte d'Aubervilliers, à Paris.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_Ana%C3%AFs-Nin</t>
+          <t>Jardin_Anaïs-Nin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin Anaïs-Nin est accessible par la ligne E du RER à la gare Rosa-Parks et par la ligne 3b du tramway d'Île-de-France à la station Rosa-Parks.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_Ana%C3%AFs-Nin</t>
+          <t>Jardin_Anaïs-Nin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin prend une forme rectangulaire, constitué de grandes pelouses et d'arbres remarquables. Son mail est traversé par la rue Jean-Oberlé au nord. La perspective se prolonge sur la place Skanderbeg qui accueille le bâtiment futuriste des nouveaux ateliers de Chanel.
-Le jardin est totalement ouvert, dépourvu de clôture, afin de ne pas créer de frontière entre les deux arrondissements[1]. 
+Le jardin est totalement ouvert, dépourvu de clôture, afin de ne pas créer de frontière entre les deux arrondissements. 
 Il constitue un élément central entre le boulevard Macdonald et le boulevard Ney (au sud), la rue Jean-Oberlé, la rue Émile-Bollaert, la rue Gaston-Darboux et la rue Charles-Hermite (partie centrale du parc) et la place Charles-Tillon et la place Skanderbeg (au nord).
 </t>
         </is>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jardin_Ana%C3%AFs-Nin</t>
+          <t>Jardin_Anaïs-Nin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>L'œuvre Tu me fais tourner la tête de Pierre Ardouvin</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin accueille l'œuvre de l'artiste plasticien français Pierre Ardouvin, intitulée Tu me fais tourner la tête, qui constituent des nacelles de manèges de fête foraine fixées au sommet de tiges métalliques, illuminées la nuit[2]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin accueille l'œuvre de l'artiste plasticien français Pierre Ardouvin, intitulée Tu me fais tourner la tête, qui constituent des nacelles de manèges de fête foraine fixées au sommet de tiges métalliques, illuminées la nuit. 
 </t>
         </is>
       </c>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jardin_Ana%C3%AFs-Nin</t>
+          <t>Jardin_Anaïs-Nin</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin est dédié à l'écrivaine américaine Anaïs Nin (1903-1977).
 </t>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jardin_Ana%C3%AFs-Nin</t>
+          <t>Jardin_Anaïs-Nin</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,9 +659,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin a été créé en 1989 et a été nommé officiellement en 2015[3] à l'occasion de l'aménagement urbain de l'entrepôt Macdonald, qui a permis la création, notamment, de la rue Cesária-Évora, le passage Susan-Sontag, la rue Jacques-Duchesne et le parvis Rosa-Parks, et qui a accueilli des milliers de nouveaux habitants dans le quartier.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin a été créé en 1989 et a été nommé officiellement en 2015 à l'occasion de l'aménagement urbain de l'entrepôt Macdonald, qui a permis la création, notamment, de la rue Cesária-Évora, le passage Susan-Sontag, la rue Jacques-Duchesne et le parvis Rosa-Parks, et qui a accueilli des milliers de nouveaux habitants dans le quartier.
 </t>
         </is>
       </c>
